--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
+    <col width="43" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -460,100 +460,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers vs Atlanta Hawks</t>
+          <t>Charlotte Hornets vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Filadélfia</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boston Celtics vs Washington Wizards</t>
+          <t>Cleveland Cavaliers vs Philadelphia 76ers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs Houston Rockets</t>
+          <t>Atlanta Hawks vs Chicago Bulls</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks vs Charlotte Hornets</t>
+          <t>Toronto Raptors vs San Antonio Spurs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sacramento Kings vs Denver Nuggets</t>
+          <t>Houston Rockets vs New York Knicks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers vs New Orleans Pelicans</t>
+          <t>Memphis Grizzlies vs New Orleans Pelicans</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks vs Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks vs Washington Wizards</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Utah Jazz vs Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LA Clippers vs Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -611,7 +679,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>124.1</t>
         </is>
       </c>
     </row>
@@ -626,7 +694,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>122.9</t>
         </is>
       </c>
     </row>
@@ -641,7 +709,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>121.5</t>
+          <t>121.7</t>
         </is>
       </c>
     </row>
@@ -656,7 +724,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.8</t>
+          <t>120.7</t>
         </is>
       </c>
     </row>
@@ -742,7 +810,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>109.3</t>
+          <t>109.0</t>
         </is>
       </c>
     </row>
@@ -757,7 +825,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.6</t>
+          <t>109.9</t>
         </is>
       </c>
     </row>
@@ -767,22 +835,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110.5</t>
+          <t>110.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Miami Heat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -843,7 +911,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.4</t>
         </is>
       </c>
     </row>
@@ -864,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -873,7 +941,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -888,7 +956,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.0</t>
         </is>
       </c>
     </row>
@@ -903,7 +971,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.6</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,7 +1153,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1126,7 +1194,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1139,7 +1207,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1213,30 +1281,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1360,7 +1428,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1390,32 +1458,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1426,7 +1494,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1507,7 +1575,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1595,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.8</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1615,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1742,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>34.5</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1768,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1714,7 +1782,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>30.7</t>
         </is>
       </c>
     </row>
@@ -1724,17 +1792,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.5</t>
+          <t>28.3</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1869,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1899,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1851,12 +1919,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1871,17 +1939,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12.1</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2086,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2095,7 +2163,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2299,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>50.8</t>
         </is>
       </c>
     </row>
@@ -2241,27 +2309,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>49.9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.9</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2344,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.5</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2359,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.5</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2415,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+9.6</t>
+          <t>+9.3</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+7.7</t>
+          <t>+7.0</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2475,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+5.5</t>
+          <t>+5.8</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jogos de Hoje" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arremessos de 3 Pontos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assistências" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pontos" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebotes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Roubos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tocos" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arremessos %" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diferencial de Pontos" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pontos1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pontos Permitidos" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebotes1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tocos1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Doubledouble" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tripledouble" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Jogos de Hoje" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arremessos de 3 Pontos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assistências" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pontos" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Rebotes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Roubos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Tocos" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Arremessos %" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Diferencial de Pontos" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Pontos1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Pontos Permitidos" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Rebotes1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Tocos1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Doubledouble" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tripledouble" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="43" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -460,12 +460,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Charlotte Hornets vs Indiana Pacers</t>
+          <t>Charlotte Hornets vs Atlanta Hawks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,153 +477,204 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers vs Philadelphia 76ers</t>
+          <t>Orlando Magic vs New York Knicks</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Orlando</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks vs Chicago Bulls</t>
+          <t>Philadelphia 76ers vs Miami Heat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Filadélfia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs San Antonio Spurs</t>
+          <t>Boston Celtics vs Brooklyn Nets</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Houston Rockets vs New York Knicks</t>
+          <t>Cleveland Cavaliers vs Chicago Bulls</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies vs New Orleans Pelicans</t>
+          <t>Toronto Raptors vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks vs Denver Nuggets</t>
+          <t>Memphis Grizzlies vs Houston Rockets</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dallas Mavericks vs Washington Wizards</t>
+          <t>New Orleans Pelicans vs Washington Wizards</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>New Orleans</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Utah Jazz vs Golden State Warriors</t>
+          <t>Dallas Mavericks vs San Antonio Spurs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LA Clippers vs Minnesota Timberwolves</t>
+          <t>Denver Nuggets vs Sacramento Kings</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Denver</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phoenix Suns vs Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Utah Jazz vs Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Golden State Warriors vs LA Clippers</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1204,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1171,7 +1222,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1180,34 +1231,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1276,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1341,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1326,7 +1377,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -454,227 +454,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>Local do Evento</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Charlotte Hornets vs Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Orlando Magic vs New York Knicks</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Philadelphia 76ers vs Miami Heat</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Filadélfia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Boston Celtics vs Brooklyn Nets</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers vs Chicago Bulls</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Toronto Raptors vs Indiana Pacers</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies vs Houston Rockets</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>New Orleans Pelicans vs Washington Wizards</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dallas Mavericks vs San Antonio Spurs</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Denver Nuggets vs Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Denver</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phoenix Suns vs Detroit Pistons</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Utah Jazz vs Los Angeles Lakers</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Golden State Warriors vs LA Clippers</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
         </is>
       </c>
     </row>
@@ -730,7 +509,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>124.1</t>
+          <t>123.7</t>
         </is>
       </c>
     </row>
@@ -745,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>122.9</t>
+          <t>122.0</t>
         </is>
       </c>
     </row>
@@ -760,7 +539,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>121.7</t>
+          <t>121.3</t>
         </is>
       </c>
     </row>
@@ -775,7 +554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.7</t>
+          <t>120.8</t>
         </is>
       </c>
     </row>
@@ -790,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.4</t>
+          <t>120.7</t>
         </is>
       </c>
     </row>
@@ -846,7 +625,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>107.1</t>
+          <t>106.7</t>
         </is>
       </c>
     </row>
@@ -861,7 +640,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>109.2</t>
         </is>
       </c>
     </row>
@@ -886,27 +665,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Miami Heat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110.8</t>
+          <t>110.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110.8</t>
+          <t>110.6</t>
         </is>
       </c>
     </row>
@@ -962,7 +741,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.3</t>
         </is>
       </c>
     </row>
@@ -983,7 +762,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -992,7 +771,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.6</t>
         </is>
       </c>
     </row>
@@ -1007,7 +786,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.9</t>
         </is>
       </c>
     </row>
@@ -1022,7 +801,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.7</t>
         </is>
       </c>
     </row>
@@ -1073,27 +852,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -1108,7 +887,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -1118,12 +897,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -1133,12 +912,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -1204,7 +983,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1240,7 +1019,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1258,7 +1037,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1276,7 +1055,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1278,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1324,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1559,7 +1338,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1425,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1465,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1485,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1572,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>34.2</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1612,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>30.8</t>
         </is>
       </c>
     </row>
@@ -1843,17 +1622,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.3</t>
+          <t>28.4</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1729,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1966,7 +1745,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1980,27 +1759,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -2093,7 +1872,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2107,7 +1886,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -2214,7 +1993,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2073,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2360,22 +2139,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2395,7 +2174,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.4</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2184,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.4</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2245,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+9.3</t>
+          <t>+10.1</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2255,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+7.0</t>
+          <t>+7.2</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2270,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+6.3</t>
+          <t>+7.1</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2285,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+6.0</t>
+          <t>+5.6</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2300,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>LA Clippers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+5.8</t>
+          <t>+5.5</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -454,6 +454,176 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>Local do Evento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks vs Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers vs Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Filadélfia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Houston Rockets vs Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies vs LA Clippers</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder vs Washington Wizards</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans vs Miami Heat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves vs Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Golden State Warriors vs Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers vs Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers vs San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
@@ -509,7 +679,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123.7</t>
+          <t>123.8</t>
         </is>
       </c>
     </row>
@@ -554,7 +724,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.8</t>
+          <t>121.0</t>
         </is>
       </c>
     </row>
@@ -569,7 +739,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.7</t>
+          <t>120.8</t>
         </is>
       </c>
     </row>
@@ -640,7 +810,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>109.2</t>
+          <t>109.3</t>
         </is>
       </c>
     </row>
@@ -655,7 +825,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.9</t>
+          <t>109.7</t>
         </is>
       </c>
     </row>
@@ -741,7 +911,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.1</t>
         </is>
       </c>
     </row>
@@ -756,7 +926,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.8</t>
         </is>
       </c>
     </row>
@@ -771,7 +941,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -786,7 +956,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.8</t>
         </is>
       </c>
     </row>
@@ -872,7 +1042,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -897,7 +1067,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -908,16 +1078,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -983,7 +1153,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1001,7 +1171,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1010,12 +1180,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1024,20 +1194,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -1120,7 +1290,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1138,7 +1308,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1258,7 +1428,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1615,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1645,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1572,7 +1742,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>34.3</t>
         </is>
       </c>
     </row>
@@ -1759,13 +1929,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1846,7 +2016,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -1916,12 +2086,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2003,32 +2173,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UTAH</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTAH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2039,7 +2209,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2053,7 +2223,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2314,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50.1</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2329,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>49.8</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2415,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+10.1</t>
+          <t>+10.2</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2425,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+7.2</t>
+          <t>+7.4</t>
         </is>
       </c>
     </row>
@@ -2270,12 +2440,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+7.1</t>
+          <t>+7.2</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2460,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+5.6</t>
+          <t>+5.4</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2475,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+5.5</t>
+          <t>+5.0</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -460,170 +460,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks vs Toronto Raptors</t>
+          <t>Charlotte Hornets vs Phoenix Suns</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers vs Cleveland Cavaliers</t>
+          <t>Detroit Pistons vs Miami Heat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Filadélfia</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Houston Rockets vs Phoenix Suns</t>
+          <t>Toronto Raptors vs Orlando Magic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies vs LA Clippers</t>
+          <t>New Orleans Pelicans vs LA Clippers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>New Orleans</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder vs Washington Wizards</t>
+          <t>San Antonio Spurs vs Denver Nuggets</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans vs Miami Heat</t>
+          <t>Utah Jazz vs Atlanta Hawks</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Minnesota Timberwolves vs Milwaukee Bucks</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Minneapolis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Golden State Warriors vs Charlotte Hornets</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portland Trail Blazers vs Denver Nuggets</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portland</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Los Angeles Lakers vs San Antonio Spurs</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
@@ -679,7 +611,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123.8</t>
+          <t>123.1</t>
         </is>
       </c>
     </row>
@@ -689,12 +621,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>120.9</t>
         </is>
       </c>
     </row>
@@ -704,12 +636,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>121.3</t>
+          <t>120.8</t>
         </is>
       </c>
     </row>
@@ -719,12 +651,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>120.4</t>
         </is>
       </c>
     </row>
@@ -734,12 +666,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.8</t>
+          <t>119.4</t>
         </is>
       </c>
     </row>
@@ -805,12 +737,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>109.3</t>
+          <t>108.1</t>
         </is>
       </c>
     </row>
@@ -820,12 +752,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.7</t>
+          <t>109.3</t>
         </is>
       </c>
     </row>
@@ -835,12 +767,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110.4</t>
+          <t>109.4</t>
         </is>
       </c>
     </row>
@@ -855,7 +787,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110.6</t>
+          <t>109.7</t>
         </is>
       </c>
     </row>
@@ -911,7 +843,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.9</t>
         </is>
       </c>
     </row>
@@ -921,12 +853,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -936,12 +868,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.1</t>
         </is>
       </c>
     </row>
@@ -951,12 +883,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.9</t>
         </is>
       </c>
     </row>
@@ -966,12 +898,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.8</t>
         </is>
       </c>
     </row>
@@ -995,7 +927,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -1052,27 +984,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1014,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1153,7 +1085,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1171,7 +1103,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1189,12 +1121,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1207,7 +1139,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1157,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1222,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1308,7 +1240,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1326,7 +1258,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1344,7 +1276,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1353,16 +1285,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1317,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1428,7 +1360,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1410,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1498,12 +1430,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1575,7 +1507,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>11.4</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1527,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.8</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1644,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>34.3</t>
         </is>
       </c>
     </row>
@@ -1732,17 +1664,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>31.1</t>
         </is>
       </c>
     </row>
@@ -1752,17 +1684,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>30.8</t>
         </is>
       </c>
     </row>
@@ -1772,17 +1704,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>28.3</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1734,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>27.7</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1801,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>13.6</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1821,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.9</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1841,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1861,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.3</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1881,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -2026,12 +1958,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2042,41 +1974,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -2086,17 +2018,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2095,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -2173,17 +2105,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTAH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -2193,23 +2125,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UTAH</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2223,7 +2155,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2175,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2231,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.6</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2246,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.0</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2256,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2339,27 +2271,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.3</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2347,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+10.2</t>
+          <t>+11.2</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2362,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+7.4</t>
+          <t>+7.6</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2377,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+7.2</t>
+          <t>+6.4</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2387,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+5.4</t>
+          <t>+4.8</t>
         </is>
       </c>
     </row>
@@ -2470,12 +2402,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+5.0</t>
+          <t>+4.4</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -460,102 +460,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Charlotte Hornets vs Phoenix Suns</t>
+          <t>Indiana Pacers vs Milwaukee Bucks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Indianápolis</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Detroit Pistons vs Miami Heat</t>
+          <t>Dallas Mavericks vs LA Clippers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs Orlando Magic</t>
+          <t>Phoenix Suns vs Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>New Orleans Pelicans vs LA Clippers</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>San Antonio Spurs vs Denver Nuggets</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Austin</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Utah Jazz vs Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
@@ -579,7 +528,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -606,12 +555,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123.1</t>
+          <t>112.5</t>
         </is>
       </c>
     </row>
@@ -621,12 +570,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120.9</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -636,12 +585,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120.8</t>
+          <t>109.7</t>
         </is>
       </c>
     </row>
@@ -651,12 +600,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.4</t>
+          <t>109.5</t>
         </is>
       </c>
     </row>
@@ -666,12 +615,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>119.4</t>
+          <t>109.0</t>
         </is>
       </c>
     </row>
@@ -722,27 +671,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>106.7</t>
+          <t>92.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>108.1</t>
+          <t>92.0</t>
         </is>
       </c>
     </row>
@@ -752,12 +701,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.3</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
@@ -767,12 +716,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>LA Clippers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>109.4</t>
+          <t>96.5</t>
         </is>
       </c>
     </row>
@@ -782,12 +731,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>109.7</t>
+          <t>96.7</t>
         </is>
       </c>
     </row>
@@ -811,7 +760,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -838,12 +787,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>48.3</t>
         </is>
       </c>
     </row>
@@ -853,12 +802,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.5</t>
         </is>
       </c>
     </row>
@@ -868,12 +817,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>LA Clippers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
     </row>
@@ -883,27 +832,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.5</t>
         </is>
       </c>
     </row>
@@ -927,7 +876,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -954,12 +903,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -969,42 +918,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -1014,12 +963,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -1043,7 +992,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1076,21 +1025,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1103,7 +1052,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1112,52 +1061,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1129,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1213,34 +1162,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1249,52 +1198,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1266,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1350,17 +1299,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -1380,67 +1329,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1456,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -1517,17 +1466,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>9.7</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1486,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1567,27 +1516,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1560,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1644,17 +1593,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>37.7</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1613,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>36.5</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1694,7 +1643,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>34.5</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1653,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.3</t>
+          <t>32.5</t>
         </is>
       </c>
     </row>
@@ -1724,17 +1673,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>32.3</t>
         </is>
       </c>
     </row>
@@ -1744,300 +1693,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Rank</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome de Jogador</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Domantas Sabonis</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rudy Gobert</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anthony Davis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nikola Jokic</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jalen Duren</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Rank</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome de Jogador</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shai Gilgeous-Alexander</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>De'Aaron Fox</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Matisse Thybulle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Donovan Mitchell</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kawhi Leonard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2085,17 +1740,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>15.7</t>
         </is>
       </c>
     </row>
@@ -2105,17 +1760,164 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UTAH</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>15.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jonas Valanciunas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthony Davis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nome de Jogador</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kyrie Irving</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2125,17 +1927,164 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Nickeil Alexander-Walker</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kelly Oubre Jr.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nome de Jogador</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chet Holmgren</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Brook Lopez</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Evan Mobley</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -2145,37 +2094,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2148,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -2226,12 +2175,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.9</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2190,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.0</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2205,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Miami Heat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>48.1</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2220,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47.6</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2235,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>47.5</t>
         </is>
       </c>
     </row>
@@ -2342,12 +2291,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+11.2</t>
+          <t>+18.5</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2311,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+7.6</t>
+          <t>+17.0</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2321,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+6.4</t>
+          <t>+6.6</t>
         </is>
       </c>
     </row>
@@ -2387,12 +2336,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+4.8</t>
+          <t>+5.0</t>
         </is>
       </c>
     </row>
@@ -2402,12 +2351,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+4.4</t>
+          <t>+4.6</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/planilha_NBA.xlsx
+++ b/nba/Excel/planilha_NBA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -460,51 +460,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indiana Pacers vs Milwaukee Bucks</t>
+          <t>New York Knicks vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Indianápolis</t>
+          <t>Nova York</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks vs LA Clippers</t>
+          <t>Denver Nuggets vs Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Phoenix Suns vs Minnesota Timberwolves</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>26-04-2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Phoenix</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
@@ -555,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>112.5</t>
+          <t>114.8</t>
         </is>
       </c>
     </row>
@@ -570,12 +553,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>110.3</t>
         </is>
       </c>
     </row>
@@ -585,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.7</t>
+          <t>110.2</t>
         </is>
       </c>
     </row>
@@ -600,12 +583,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>109.5</t>
+          <t>109.6</t>
         </is>
       </c>
     </row>
@@ -615,12 +598,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>108.2</t>
         </is>
       </c>
     </row>
@@ -644,7 +627,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -676,37 +659,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>95.9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>96.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>96.6</t>
         </is>
       </c>
     </row>
@@ -716,12 +699,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96.5</t>
+          <t>102.8</t>
         </is>
       </c>
     </row>
@@ -731,12 +714,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96.7</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -760,7 +743,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -787,12 +770,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.5</t>
         </is>
       </c>
     </row>
@@ -802,12 +785,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>45.1</t>
         </is>
       </c>
     </row>
@@ -817,12 +800,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.0</t>
         </is>
       </c>
     </row>
@@ -832,27 +815,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.9</t>
         </is>
       </c>
     </row>
@@ -876,7 +859,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -903,12 +886,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -918,27 +901,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -948,12 +931,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -963,12 +946,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -1025,21 +1008,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1052,61 +1035,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1112,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1171,21 +1154,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1194,56 +1177,56 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1249,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1309,7 +1292,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1302,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1322,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1359,27 +1342,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1389,7 +1372,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1429,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -1476,27 +1459,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1489,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1586,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1596,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>32.9</t>
         </is>
       </c>
     </row>
@@ -1633,17 +1616,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>32.1</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1636,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1656,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>29.8</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1690,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1740,17 +1723,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>15.6</t>
         </is>
       </c>
     </row>
@@ -1760,17 +1743,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -1780,37 +1763,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.3</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1803,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1837,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1887,17 +1870,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -1907,77 +1890,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1984,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -2044,7 +2027,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2037,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -2074,17 +2057,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -2094,37 +2077,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2158,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>49.5</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2178,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.2</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2188,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2220,12 +2203,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.5</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2218,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.3</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2274,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+18.5</t>
+          <t>+11.0</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2294,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+17.0</t>
+          <t>+9.5</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2304,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+6.6</t>
+          <t>+7.2</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2319,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+5.0</t>
+          <t>+4.4</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2334,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+4.6</t>
+          <t>+4.0</t>
         </is>
       </c>
     </row>
